--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H2">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I2">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J2">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.229040333333334</v>
+        <v>2.084468666666667</v>
       </c>
       <c r="N2">
-        <v>12.687121</v>
+        <v>6.253406</v>
       </c>
       <c r="O2">
-        <v>0.04803051451284639</v>
+        <v>0.02757412468035019</v>
       </c>
       <c r="P2">
-        <v>0.05232277349246102</v>
+        <v>0.02826332199628731</v>
       </c>
       <c r="Q2">
-        <v>215.470615723973</v>
+        <v>74.79742829406578</v>
       </c>
       <c r="R2">
-        <v>1939.235541515757</v>
+        <v>673.1768546465921</v>
       </c>
       <c r="S2">
-        <v>0.007300667589986889</v>
+        <v>0.002293559301590638</v>
       </c>
       <c r="T2">
-        <v>0.008062408186044237</v>
+        <v>0.002387923905287256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H3">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I3">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J3">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>147.482716</v>
       </c>
       <c r="O3">
-        <v>0.5583355539236997</v>
+        <v>0.6503186901954997</v>
       </c>
       <c r="P3">
-        <v>0.6082313507785538</v>
+        <v>0.6665729829783952</v>
       </c>
       <c r="Q3">
-        <v>2504.759876189708</v>
+        <v>1764.051122640057</v>
       </c>
       <c r="R3">
-        <v>22542.83888570737</v>
+        <v>15876.46010376052</v>
       </c>
       <c r="S3">
-        <v>0.08486734577406811</v>
+        <v>0.05409217874317621</v>
       </c>
       <c r="T3">
-        <v>0.09372227606077355</v>
+        <v>0.05631770960546801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H4">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I4">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J4">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.800113333333333</v>
+        <v>8.752759000000001</v>
       </c>
       <c r="N4">
-        <v>20.40034</v>
+        <v>26.258277</v>
       </c>
       <c r="O4">
-        <v>0.07723098301316748</v>
+        <v>0.1157847425689571</v>
       </c>
       <c r="P4">
-        <v>0.08413274918629625</v>
+        <v>0.1186787069188703</v>
       </c>
       <c r="Q4">
-        <v>346.46739956042</v>
+        <v>314.0770951115628</v>
       </c>
       <c r="R4">
-        <v>3118.20659604378</v>
+        <v>2826.693856004065</v>
       </c>
       <c r="S4">
-        <v>0.01173915666625337</v>
+        <v>0.009630738106096666</v>
       </c>
       <c r="T4">
-        <v>0.01296400248835695</v>
+        <v>0.01002697847540277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H5">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I5">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J5">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.6691065</v>
+        <v>5.530129000000001</v>
       </c>
       <c r="N5">
-        <v>43.338213</v>
+        <v>11.060258</v>
       </c>
       <c r="O5">
-        <v>0.2461027212309232</v>
+        <v>0.07315459761180725</v>
       </c>
       <c r="P5">
-        <v>0.178730501771602</v>
+        <v>0.04998869947289727</v>
       </c>
       <c r="Q5">
-        <v>1104.046155091454</v>
+        <v>198.4387839208427</v>
       </c>
       <c r="R5">
-        <v>6624.276930548721</v>
+        <v>1190.632703525056</v>
       </c>
       <c r="S5">
-        <v>0.03740776418744431</v>
+        <v>0.006084849827572112</v>
       </c>
       <c r="T5">
-        <v>0.02754055575411701</v>
+        <v>0.004223467095666684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H6">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I6">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J6">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.189867</v>
+        <v>10.06683633333333</v>
       </c>
       <c r="N6">
-        <v>18.569601</v>
+        <v>30.200509</v>
       </c>
       <c r="O6">
-        <v>0.07030022731936321</v>
+        <v>0.1331678449433857</v>
       </c>
       <c r="P6">
-        <v>0.07658262477108695</v>
+        <v>0.1364962886335499</v>
       </c>
       <c r="Q6">
-        <v>315.375203028213</v>
+        <v>361.2304088958542</v>
       </c>
       <c r="R6">
-        <v>2838.376827253917</v>
+        <v>3251.073680062688</v>
       </c>
       <c r="S6">
-        <v>0.01068567756070807</v>
+        <v>0.01107662901300856</v>
       </c>
       <c r="T6">
-        <v>0.01180060496892677</v>
+        <v>0.01153235810899579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J7">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.229040333333334</v>
+        <v>2.084468666666667</v>
       </c>
       <c r="N7">
-        <v>12.687121</v>
+        <v>6.253406</v>
       </c>
       <c r="O7">
-        <v>0.04803051451284639</v>
+        <v>0.02757412468035019</v>
       </c>
       <c r="P7">
-        <v>0.05232277349246102</v>
+        <v>0.02826332199628731</v>
       </c>
       <c r="Q7">
-        <v>64.26939131467911</v>
+        <v>31.67799828373688</v>
       </c>
       <c r="R7">
-        <v>578.424521832112</v>
+        <v>285.101984553632</v>
       </c>
       <c r="S7">
-        <v>0.002177603013862176</v>
+        <v>0.0009713618405942076</v>
       </c>
       <c r="T7">
-        <v>0.002404810813328449</v>
+        <v>0.001011326874447974</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J8">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>147.482716</v>
       </c>
       <c r="O8">
-        <v>0.5583355539236997</v>
+        <v>0.6503186901954997</v>
       </c>
       <c r="P8">
-        <v>0.6082313507785538</v>
+        <v>0.6665729829783952</v>
       </c>
       <c r="Q8">
         <v>747.1060129997725</v>
@@ -948,10 +948,10 @@
         <v>6723.954116997952</v>
       </c>
       <c r="S8">
-        <v>0.02531376557803614</v>
+        <v>0.02290896872353927</v>
       </c>
       <c r="T8">
-        <v>0.02795496552888939</v>
+        <v>0.02385151934919597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J9">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.800113333333333</v>
+        <v>8.752759000000001</v>
       </c>
       <c r="N9">
-        <v>20.40034</v>
+        <v>26.258277</v>
       </c>
       <c r="O9">
-        <v>0.07723098301316748</v>
+        <v>0.1157847425689571</v>
       </c>
       <c r="P9">
-        <v>0.08413274918629625</v>
+        <v>0.1186787069188703</v>
       </c>
       <c r="Q9">
-        <v>103.3423922111644</v>
+        <v>133.0170556237493</v>
       </c>
       <c r="R9">
-        <v>930.0815299004799</v>
+        <v>1197.153500613744</v>
       </c>
       <c r="S9">
-        <v>0.003501491147425259</v>
+        <v>0.004078783350633647</v>
       </c>
       <c r="T9">
-        <v>0.003866831429098602</v>
+        <v>0.00424659796705973</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J10">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.6691065</v>
+        <v>5.530129000000001</v>
       </c>
       <c r="N10">
-        <v>43.338213</v>
+        <v>11.060258</v>
       </c>
       <c r="O10">
-        <v>0.2461027212309232</v>
+        <v>0.07315459761180725</v>
       </c>
       <c r="P10">
-        <v>0.178730501771602</v>
+        <v>0.04998869947289727</v>
       </c>
       <c r="Q10">
-        <v>329.3088207532559</v>
+        <v>84.04224048662932</v>
       </c>
       <c r="R10">
-        <v>1975.852924519536</v>
+        <v>504.253442919776</v>
       </c>
       <c r="S10">
-        <v>0.01115778235789675</v>
+        <v>0.002577038633424764</v>
       </c>
       <c r="T10">
-        <v>0.008214645643620136</v>
+        <v>0.00178871100864524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J11">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.189867</v>
+        <v>10.06683633333333</v>
       </c>
       <c r="N11">
-        <v>18.569601</v>
+        <v>30.200509</v>
       </c>
       <c r="O11">
-        <v>0.07030022731936321</v>
+        <v>0.1331678449433857</v>
       </c>
       <c r="P11">
-        <v>0.07658262477108695</v>
+        <v>0.1364962886335499</v>
       </c>
       <c r="Q11">
-        <v>94.06838267140799</v>
+        <v>152.9872956065831</v>
       </c>
       <c r="R11">
-        <v>846.6154440426718</v>
+        <v>1376.885660459248</v>
       </c>
       <c r="S11">
-        <v>0.003187265188360549</v>
+        <v>0.004691143036150529</v>
       </c>
       <c r="T11">
-        <v>0.003519819609507529</v>
+        <v>0.00488415215223638</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H12">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I12">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J12">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.229040333333334</v>
+        <v>2.084468666666667</v>
       </c>
       <c r="N12">
-        <v>12.687121</v>
+        <v>6.253406</v>
       </c>
       <c r="O12">
-        <v>0.04803051451284639</v>
+        <v>0.02757412468035019</v>
       </c>
       <c r="P12">
-        <v>0.05232277349246102</v>
+        <v>0.02826332199628731</v>
       </c>
       <c r="Q12">
-        <v>525.4679882094334</v>
+        <v>370.41168710754</v>
       </c>
       <c r="R12">
-        <v>4729.211893884901</v>
+        <v>3333.70518396786</v>
       </c>
       <c r="S12">
-        <v>0.01780413119536746</v>
+        <v>0.0113581601635197</v>
       </c>
       <c r="T12">
-        <v>0.01966178727159306</v>
+        <v>0.0118254723807403</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H13">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I13">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J13">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>147.482716</v>
       </c>
       <c r="O13">
-        <v>0.5583355539236997</v>
+        <v>0.6503186901954997</v>
       </c>
       <c r="P13">
-        <v>0.6082313507785538</v>
+        <v>0.6665729829783952</v>
       </c>
       <c r="Q13">
-        <v>6108.355557748934</v>
+        <v>8735.930731630442</v>
       </c>
       <c r="R13">
-        <v>54975.2000197404</v>
+        <v>78623.37658467397</v>
       </c>
       <c r="S13">
-        <v>0.2069659164370798</v>
+        <v>0.2678751882860141</v>
       </c>
       <c r="T13">
-        <v>0.2285604266112678</v>
+        <v>0.278896458137304</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H14">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I14">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J14">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.800113333333333</v>
+        <v>8.752759000000001</v>
       </c>
       <c r="N14">
-        <v>20.40034</v>
+        <v>26.258277</v>
       </c>
       <c r="O14">
-        <v>0.07723098301316748</v>
+        <v>0.1157847425689571</v>
       </c>
       <c r="P14">
-        <v>0.08413274918629625</v>
+        <v>0.1186787069188703</v>
       </c>
       <c r="Q14">
-        <v>844.9297219273333</v>
+        <v>1555.37201392443</v>
       </c>
       <c r="R14">
-        <v>7604.367497346</v>
+        <v>13998.34812531987</v>
       </c>
       <c r="S14">
-        <v>0.02862827033730525</v>
+        <v>0.0476933235718368</v>
       </c>
       <c r="T14">
-        <v>0.03161530069337013</v>
+        <v>0.04965558440141712</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H15">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I15">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J15">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.6691065</v>
+        <v>5.530129000000001</v>
       </c>
       <c r="N15">
-        <v>43.338213</v>
+        <v>11.060258</v>
       </c>
       <c r="O15">
-        <v>0.2461027212309232</v>
+        <v>0.07315459761180725</v>
       </c>
       <c r="P15">
-        <v>0.178730501771602</v>
+        <v>0.04998869947289727</v>
       </c>
       <c r="Q15">
-        <v>2692.43632156995</v>
+        <v>982.7081814993301</v>
       </c>
       <c r="R15">
-        <v>16154.6179294197</v>
+        <v>5896.249088995981</v>
       </c>
       <c r="S15">
-        <v>0.09122627939287166</v>
+        <v>0.03013338214738899</v>
       </c>
       <c r="T15">
-        <v>0.0671631274531857</v>
+        <v>0.02091544599900629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H16">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I16">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J16">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.189867</v>
+        <v>10.06683633333333</v>
       </c>
       <c r="N16">
-        <v>18.569601</v>
+        <v>30.200509</v>
       </c>
       <c r="O16">
-        <v>0.07030022731936321</v>
+        <v>0.1331678449433857</v>
       </c>
       <c r="P16">
-        <v>0.07658262477108695</v>
+        <v>0.1364962886335499</v>
       </c>
       <c r="Q16">
-        <v>769.1052114441</v>
+        <v>1788.88456789731</v>
       </c>
       <c r="R16">
-        <v>6921.9469029969</v>
+        <v>16099.96111107579</v>
       </c>
       <c r="S16">
-        <v>0.02605915183197408</v>
+        <v>0.05485366186711981</v>
       </c>
       <c r="T16">
-        <v>0.02877812425532646</v>
+        <v>0.05711052265977913</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H17">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I17">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J17">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.229040333333334</v>
+        <v>2.084468666666667</v>
       </c>
       <c r="N17">
-        <v>12.687121</v>
+        <v>6.253406</v>
       </c>
       <c r="O17">
-        <v>0.04803051451284639</v>
+        <v>0.02757412468035019</v>
       </c>
       <c r="P17">
-        <v>0.05232277349246102</v>
+        <v>0.02826332199628731</v>
       </c>
       <c r="Q17">
-        <v>57.66036408519501</v>
+        <v>41.84403257052533</v>
       </c>
       <c r="R17">
-        <v>345.9621845111701</v>
+        <v>251.064195423152</v>
       </c>
       <c r="S17">
-        <v>0.001953673125633491</v>
+        <v>0.001283089169067115</v>
       </c>
       <c r="T17">
-        <v>0.001438344279872482</v>
+        <v>0.0008905864630883607</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H18">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I18">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J18">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>147.482716</v>
       </c>
       <c r="O18">
-        <v>0.5583355539236997</v>
+        <v>0.6503186901954997</v>
       </c>
       <c r="P18">
-        <v>0.6082313507785538</v>
+        <v>0.6665729829783952</v>
       </c>
       <c r="Q18">
-        <v>670.2787102632201</v>
+        <v>986.8656491987788</v>
       </c>
       <c r="R18">
-        <v>4021.67226157932</v>
+        <v>5921.193895192672</v>
       </c>
       <c r="S18">
-        <v>0.02271067003653835</v>
+        <v>0.03026086512281489</v>
       </c>
       <c r="T18">
-        <v>0.01672017796146642</v>
+        <v>0.02100393136302124</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H19">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I19">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J19">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.800113333333333</v>
+        <v>8.752759000000001</v>
       </c>
       <c r="N19">
-        <v>20.40034</v>
+        <v>26.258277</v>
       </c>
       <c r="O19">
-        <v>0.07723098301316748</v>
+        <v>0.1157847425689571</v>
       </c>
       <c r="P19">
-        <v>0.08413274918629625</v>
+        <v>0.1186787069188703</v>
       </c>
       <c r="Q19">
-        <v>92.7153632303</v>
+        <v>175.704599706764</v>
       </c>
       <c r="R19">
-        <v>556.2921793818</v>
+        <v>1054.227598240584</v>
       </c>
       <c r="S19">
-        <v>0.003141421604774315</v>
+        <v>0.005387737629231838</v>
       </c>
       <c r="T19">
-        <v>0.002312795183907664</v>
+        <v>0.003739604631495932</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H20">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I20">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J20">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.6691065</v>
+        <v>5.530129000000001</v>
       </c>
       <c r="N20">
-        <v>43.338213</v>
+        <v>11.060258</v>
       </c>
       <c r="O20">
-        <v>0.2461027212309232</v>
+        <v>0.07315459761180725</v>
       </c>
       <c r="P20">
-        <v>0.178730501771602</v>
+        <v>0.04998869947289727</v>
       </c>
       <c r="Q20">
-        <v>295.4449406270025</v>
+        <v>111.012893451284</v>
       </c>
       <c r="R20">
-        <v>1181.77976250801</v>
+        <v>444.0515738051361</v>
       </c>
       <c r="S20">
-        <v>0.01001039188296698</v>
+        <v>0.003404056264751062</v>
       </c>
       <c r="T20">
-        <v>0.004913271558491893</v>
+        <v>0.00157516016920455</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H21">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I21">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J21">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.189867</v>
+        <v>10.06683633333333</v>
       </c>
       <c r="N21">
-        <v>18.569601</v>
+        <v>30.200509</v>
       </c>
       <c r="O21">
-        <v>0.07030022731936321</v>
+        <v>0.1331678449433857</v>
       </c>
       <c r="P21">
-        <v>0.07658262477108695</v>
+        <v>0.1364962886335499</v>
       </c>
       <c r="Q21">
-        <v>84.395029776795</v>
+        <v>202.0836456552547</v>
       </c>
       <c r="R21">
-        <v>506.37017866077</v>
+        <v>1212.501873931528</v>
       </c>
       <c r="S21">
-        <v>0.002859508506889529</v>
+        <v>0.006196614452702085</v>
       </c>
       <c r="T21">
-        <v>0.002105243528288594</v>
+        <v>0.004301042422925714</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H22">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I22">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J22">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.229040333333334</v>
+        <v>2.084468666666667</v>
       </c>
       <c r="N22">
-        <v>12.687121</v>
+        <v>6.253406</v>
       </c>
       <c r="O22">
-        <v>0.04803051451284639</v>
+        <v>0.02757412468035019</v>
       </c>
       <c r="P22">
-        <v>0.05232277349246102</v>
+        <v>0.02826332199628731</v>
       </c>
       <c r="Q22">
-        <v>554.69577546125</v>
+        <v>380.5146731653907</v>
       </c>
       <c r="R22">
-        <v>4992.261979151251</v>
+        <v>3424.632058488516</v>
       </c>
       <c r="S22">
-        <v>0.01879443958799637</v>
+        <v>0.01166795420557853</v>
       </c>
       <c r="T22">
-        <v>0.02075542294162279</v>
+        <v>0.01214801237272341</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H23">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I23">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J23">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>147.482716</v>
       </c>
       <c r="O23">
-        <v>0.5583355539236997</v>
+        <v>0.6503186901954997</v>
       </c>
       <c r="P23">
-        <v>0.6082313507785538</v>
+        <v>0.6665729829783952</v>
       </c>
       <c r="Q23">
-        <v>6448.116914684688</v>
+        <v>8974.203414312798</v>
       </c>
       <c r="R23">
-        <v>58033.05223216219</v>
+        <v>80767.83072881518</v>
       </c>
       <c r="S23">
-        <v>0.2184778560979773</v>
+        <v>0.2751814893199552</v>
       </c>
       <c r="T23">
-        <v>0.2412735046161567</v>
+        <v>0.2865033645234059</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H24">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I24">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J24">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.800113333333333</v>
+        <v>8.752759000000001</v>
       </c>
       <c r="N24">
-        <v>20.40034</v>
+        <v>26.258277</v>
       </c>
       <c r="O24">
-        <v>0.07723098301316748</v>
+        <v>0.1157847425689571</v>
       </c>
       <c r="P24">
-        <v>0.08413274918629625</v>
+        <v>0.1186787069188703</v>
       </c>
       <c r="Q24">
-        <v>891.9267354645042</v>
+        <v>1597.794816223558</v>
       </c>
       <c r="R24">
-        <v>8027.340619180538</v>
+        <v>14380.15334601202</v>
       </c>
       <c r="S24">
-        <v>0.03022064325740929</v>
+        <v>0.04899415991115817</v>
       </c>
       <c r="T24">
-        <v>0.03337381939156291</v>
+        <v>0.05100994144349474</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H25">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I25">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J25">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6691065</v>
+        <v>5.530129000000001</v>
       </c>
       <c r="N25">
-        <v>43.338213</v>
+        <v>11.060258</v>
       </c>
       <c r="O25">
-        <v>0.2461027212309232</v>
+        <v>0.07315459761180725</v>
       </c>
       <c r="P25">
-        <v>0.178730501771602</v>
+        <v>0.04998869947289727</v>
       </c>
       <c r="Q25">
-        <v>2842.19607432685</v>
+        <v>1009.511566495498</v>
       </c>
       <c r="R25">
-        <v>17053.1764459611</v>
+        <v>6057.069398972989</v>
       </c>
       <c r="S25">
-        <v>0.09630050340974348</v>
+        <v>0.03095527073867032</v>
       </c>
       <c r="T25">
-        <v>0.07089890136218729</v>
+        <v>0.0214859152003745</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H26">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I26">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J26">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.189867</v>
+        <v>10.06683633333333</v>
       </c>
       <c r="N26">
-        <v>18.569601</v>
+        <v>30.200509</v>
       </c>
       <c r="O26">
-        <v>0.07030022731936321</v>
+        <v>0.1331678449433857</v>
       </c>
       <c r="P26">
-        <v>0.07658262477108695</v>
+        <v>0.1364962886335499</v>
       </c>
       <c r="Q26">
-        <v>811.8846842164588</v>
+        <v>1837.676429703019</v>
       </c>
       <c r="R26">
-        <v>7306.962157948129</v>
+        <v>16539.08786732717</v>
       </c>
       <c r="S26">
-        <v>0.02750862423143099</v>
+        <v>0.05634979657440476</v>
       </c>
       <c r="T26">
-        <v>0.03037883240903759</v>
+        <v>0.05866821328961285</v>
       </c>
     </row>
   </sheetData>
